--- a/record/19년도_Record.xlsx
+++ b/record/19년도_Record.xlsx
@@ -65,12 +65,37 @@
         </r>
       </text>
     </comment>
+    <comment ref="I6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>p:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+titanic
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
   <si>
     <t>s</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -299,6 +324,30 @@
   </si>
   <si>
     <t>3끼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>몸무게</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2끼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3끼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2끼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1끼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 몸무게 측정은 항상 기상직후 바로</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +567,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,6 +619,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -593,9 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -884,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH41"/>
+  <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -917,59 +972,60 @@
     <col min="29" max="29" width="8.875" style="9" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="5.625" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="34" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="17" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1048,7 +1104,7 @@
       <c r="AB2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="18"/>
+      <c r="AC2" s="21"/>
       <c r="AD2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1061,9 +1117,11 @@
       <c r="AG2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="3"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH2" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43466</v>
       </c>
@@ -1071,7 +1129,7 @@
         <v>48</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D3" s="7">
         <v>15</v>
@@ -1091,7 +1149,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="25">
+      <c r="M3" s="17">
         <v>120</v>
       </c>
       <c r="N3" s="7">
@@ -1140,7 +1198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43467</v>
       </c>
@@ -1148,7 +1206,7 @@
         <v>49</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7">
         <v>15</v>
@@ -1173,7 +1231,7 @@
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="25">
+      <c r="M4" s="17">
         <v>90</v>
       </c>
       <c r="N4" s="7">
@@ -1219,15 +1277,23 @@
         <v>6.5166666666666666</v>
       </c>
       <c r="AE4" s="7"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH4" s="7">
+        <v>58.6</v>
+      </c>
+      <c r="AI4" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43468</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1237,33 +1303,42 @@
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7">
+        <f>67+114</f>
+        <v>181</v>
+      </c>
       <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7">
+        <v>10</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="7"/>
+        <v>191</v>
+      </c>
+      <c r="O5" s="7">
+        <v>99</v>
+      </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="S5" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
+      <c r="U5" s="7">
+        <v>10</v>
+      </c>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
@@ -1273,38 +1348,51 @@
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AD5" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE5" s="7"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43469</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7">
+        <v>15</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="I6" s="7">
+        <f>32+162</f>
+        <v>194</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1315,16 +1403,20 @@
       </c>
       <c r="S6" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
+        <v>239</v>
+      </c>
+      <c r="T6" s="7">
+        <v>10</v>
+      </c>
+      <c r="U6" s="7">
+        <v>10</v>
+      </c>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
@@ -1334,15 +1426,15 @@
       </c>
       <c r="AC6" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="AD6" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.3166666666666664</v>
       </c>
       <c r="AE6" s="7"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43470</v>
       </c>
@@ -1403,7 +1495,7 @@
       </c>
       <c r="AE7" s="7"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43471</v>
       </c>
@@ -1464,7 +1556,7 @@
       </c>
       <c r="AE8" s="7"/>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43472</v>
       </c>
@@ -1525,7 +1617,7 @@
       </c>
       <c r="AE9" s="7"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43473</v>
       </c>
@@ -1586,7 +1678,7 @@
       </c>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43474</v>
       </c>
@@ -1647,7 +1739,7 @@
       </c>
       <c r="AE11" s="7"/>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43475</v>
       </c>
@@ -1708,7 +1800,7 @@
       </c>
       <c r="AE12" s="7"/>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43476</v>
       </c>
@@ -1769,7 +1861,7 @@
       </c>
       <c r="AE13" s="7"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43477</v>
       </c>
@@ -1830,7 +1922,7 @@
       </c>
       <c r="AE14" s="7"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>43478</v>
       </c>
@@ -1891,7 +1983,7 @@
       </c>
       <c r="AE15" s="7"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43479</v>
       </c>
@@ -2974,23 +3066,23 @@
       </c>
       <c r="H34" s="9">
         <f>SUM(H3:H33)</f>
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="N34" s="9">
         <f>SUM(N3:N33)</f>
-        <v>375</v>
+        <v>760</v>
       </c>
       <c r="R34" s="9">
         <f>SUM(R3:R33)</f>
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="S34" s="9">
         <f>H34+N34+R34</f>
-        <v>546</v>
+        <v>1075</v>
       </c>
       <c r="Y34" s="9">
         <f>SUM(Y3:Y33)</f>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AB34" s="9">
         <f>SUM(AB3:AB33)</f>
@@ -2998,11 +3090,11 @@
       </c>
       <c r="AC34" s="9">
         <f>S34+Y34+AB34</f>
-        <v>706</v>
+        <v>1265</v>
       </c>
       <c r="AD34" s="2">
         <f>SUM(AD3:AD33)/31</f>
-        <v>0.39569892473118279</v>
+        <v>0.70698924731182788</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -3014,32 +3106,32 @@
       </c>
       <c r="H35" s="8">
         <f>H34/60</f>
-        <v>1.5833333333333333</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="N35" s="8">
         <f>N34/60</f>
-        <v>6.25</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="8">
         <f>R34/60</f>
-        <v>1.2666666666666666</v>
+        <v>2.9166666666666665</v>
       </c>
       <c r="S35" s="8">
         <f>S34/60</f>
-        <v>9.1</v>
+        <v>17.916666666666668</v>
       </c>
       <c r="X35" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Y35" s="8">
         <f>Y34/60</f>
-        <v>2.6666666666666665</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="AA35" s="10" t="s">
         <v>40</v>
@@ -3050,11 +3142,11 @@
       </c>
       <c r="AC35" s="9">
         <f>AC34/60</f>
-        <v>11.766666666666667</v>
+        <v>21.083333333333332</v>
       </c>
       <c r="AD35" s="8">
         <f>SUM(AD3:AD33)</f>
-        <v>12.266666666666666</v>
+        <v>21.916666666666664</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -3063,19 +3155,19 @@
       </c>
       <c r="H36" s="9">
         <f>H35</f>
-        <v>1.5833333333333333</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="N36" s="9">
         <f>N35</f>
-        <v>6.25</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="R36" s="9">
         <f>R35/31</f>
-        <v>4.0860215053763436E-2</v>
+        <v>9.4086021505376344E-2</v>
       </c>
       <c r="S36" s="9">
         <f>S35</f>
-        <v>9.1</v>
+        <v>17.916666666666668</v>
       </c>
       <c r="AB36" s="9">
         <f>AB35</f>
@@ -3083,7 +3175,7 @@
       </c>
       <c r="AD36" s="2">
         <f>AD34</f>
-        <v>0.39569892473118279</v>
+        <v>0.70698924731182788</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -3121,19 +3213,19 @@
       </c>
       <c r="H38" s="9">
         <f>H36-H37</f>
-        <v>-7.0000000000000009</v>
+        <v>-6.25</v>
       </c>
       <c r="N38" s="9">
         <f>N36-N37</f>
-        <v>-52</v>
+        <v>-45.583333333333336</v>
       </c>
       <c r="R38" s="9">
         <f>R36-R37</f>
-        <v>1.3978494623655909E-2</v>
+        <v>6.7204301075268813E-2</v>
       </c>
       <c r="S38" s="9">
         <f>S36-S37</f>
-        <v>-57.733333333333327</v>
+        <v>-48.916666666666657</v>
       </c>
       <c r="AB38" s="9">
         <f>AB36-AB37</f>
@@ -3141,7 +3233,7 @@
       </c>
       <c r="AD38" s="9">
         <f>AD36-AD37</f>
-        <v>-143.17096774193547</v>
+        <v>-142.85967741935482</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -3235,55 +3327,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="22" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="17" t="s">
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
@@ -3362,7 +3454,7 @@
       <c r="AB2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="18"/>
+      <c r="AC2" s="21"/>
       <c r="AD2" s="5" t="s">
         <v>25</v>
       </c>

--- a/record/19년도_Record.xlsx
+++ b/record/19년도_Record.xlsx
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
   <si>
     <t>s</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -343,11 +343,19 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>* 몸무게 측정은 항상 기상직후 바로</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3끼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>1끼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 몸무게 측정은 항상 기상직후 바로</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -942,7 +950,7 @@
   <dimension ref="A1:AI41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1048,7 +1056,7 @@
         <v>54</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>53</v>
@@ -1281,7 +1289,7 @@
         <v>58.6</v>
       </c>
       <c r="AI4" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
@@ -1366,7 +1374,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6" s="7">
         <v>15</v>
@@ -1418,21 +1426,26 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Z6" s="7"/>
+      <c r="Z6" s="7">
+        <v>255</v>
+      </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="AC6" s="7">
         <f t="shared" si="5"/>
-        <v>259</v>
+        <v>514</v>
       </c>
       <c r="AD6" s="7">
         <f t="shared" si="6"/>
-        <v>4.3166666666666664</v>
+        <v>8.5666666666666664</v>
       </c>
       <c r="AE6" s="7"/>
+      <c r="AH6" s="7">
+        <v>59.9</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -1441,23 +1454,40 @@
       <c r="B7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="7">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7">
+        <v>15</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="I7" s="7">
+        <f>104+200</f>
+        <v>304</v>
+      </c>
+      <c r="J7" s="7">
+        <v>30</v>
+      </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
+      <c r="L7" s="7">
+        <v>110</v>
+      </c>
+      <c r="M7" s="7">
+        <v>20</v>
+      </c>
       <c r="N7" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
@@ -1468,16 +1498,18 @@
       </c>
       <c r="S7" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
+      <c r="U7" s="7">
+        <v>10</v>
+      </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
@@ -1487,11 +1519,11 @@
       </c>
       <c r="AC7" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="AD7" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.65</v>
       </c>
       <c r="AE7" s="7"/>
     </row>
@@ -1502,7 +1534,9 @@
       <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -1511,14 +1545,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="I8" s="7">
+        <v>90</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -1529,7 +1565,7 @@
       </c>
       <c r="S8" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
@@ -1548,11 +1584,11 @@
       </c>
       <c r="AC8" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AD8" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AE8" s="7"/>
     </row>
@@ -3066,11 +3102,11 @@
       </c>
       <c r="H34" s="9">
         <f>SUM(H3:H33)</f>
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="N34" s="9">
         <f>SUM(N3:N33)</f>
-        <v>760</v>
+        <v>1314</v>
       </c>
       <c r="R34" s="9">
         <f>SUM(R3:R33)</f>
@@ -3078,23 +3114,23 @@
       </c>
       <c r="S34" s="9">
         <f>H34+N34+R34</f>
-        <v>1075</v>
+        <v>1674</v>
       </c>
       <c r="Y34" s="9">
         <f>SUM(Y3:Y33)</f>
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB34" s="9">
         <f>SUM(AB3:AB33)</f>
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="AC34" s="9">
         <f>S34+Y34+AB34</f>
-        <v>1265</v>
+        <v>2129</v>
       </c>
       <c r="AD34" s="2">
         <f>SUM(AD3:AD33)/31</f>
-        <v>0.70698924731182788</v>
+        <v>1.1715053763440859</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -3106,14 +3142,14 @@
       </c>
       <c r="H35" s="8">
         <f>H34/60</f>
-        <v>2.3333333333333335</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="N35" s="8">
         <f>N34/60</f>
-        <v>12.666666666666666</v>
+        <v>21.9</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>3</v>
@@ -3124,29 +3160,29 @@
       </c>
       <c r="S35" s="8">
         <f>S34/60</f>
-        <v>17.916666666666668</v>
+        <v>27.9</v>
       </c>
       <c r="X35" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Y35" s="8">
         <f>Y34/60</f>
-        <v>3.1666666666666665</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AA35" s="10" t="s">
         <v>40</v>
       </c>
       <c r="AB35" s="8">
         <f>AB34/60</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AC35" s="9">
         <f>AC34/60</f>
-        <v>21.083333333333332</v>
+        <v>35.483333333333334</v>
       </c>
       <c r="AD35" s="8">
         <f>SUM(AD3:AD33)</f>
-        <v>21.916666666666664</v>
+        <v>36.316666666666663</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -3155,11 +3191,11 @@
       </c>
       <c r="H36" s="9">
         <f>H35</f>
-        <v>2.3333333333333335</v>
+        <v>3.0833333333333335</v>
       </c>
       <c r="N36" s="9">
         <f>N35</f>
-        <v>12.666666666666666</v>
+        <v>21.9</v>
       </c>
       <c r="R36" s="9">
         <f>R35/31</f>
@@ -3167,15 +3203,15 @@
       </c>
       <c r="S36" s="9">
         <f>S35</f>
-        <v>17.916666666666668</v>
+        <v>27.9</v>
       </c>
       <c r="AB36" s="9">
         <f>AB35</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AD36" s="2">
         <f>AD34</f>
-        <v>0.70698924731182788</v>
+        <v>1.1715053763440859</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -3213,11 +3249,11 @@
       </c>
       <c r="H38" s="9">
         <f>H36-H37</f>
-        <v>-6.25</v>
+        <v>-5.5</v>
       </c>
       <c r="N38" s="9">
         <f>N36-N37</f>
-        <v>-45.583333333333336</v>
+        <v>-36.35</v>
       </c>
       <c r="R38" s="9">
         <f>R36-R37</f>
@@ -3225,15 +3261,15 @@
       </c>
       <c r="S38" s="9">
         <f>S36-S37</f>
-        <v>-48.916666666666657</v>
+        <v>-38.93333333333333</v>
       </c>
       <c r="AB38" s="9">
         <f>AB36-AB37</f>
-        <v>-39.583333333333336</v>
+        <v>-35.333333333333336</v>
       </c>
       <c r="AD38" s="9">
         <f>AD36-AD37</f>
-        <v>-142.85967741935482</v>
+        <v>-142.39516129032259</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">

--- a/record/19년도_Record.xlsx
+++ b/record/19년도_Record.xlsx
@@ -14,6 +14,7 @@
   <sheets>
     <sheet name="1월" sheetId="1" r:id="rId1"/>
     <sheet name="2월" sheetId="2" r:id="rId2"/>
+    <sheet name="3월" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -90,12 +91,212 @@
         </r>
       </text>
     </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>p:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기상
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>p:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+120</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>미드</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>그냥</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시청
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>p:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+120</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">미드시청
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="71">
   <si>
     <t>s</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -299,10 +500,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2끼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>AG</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -323,7 +520,43 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3끼</t>
+    <t>몸무게</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 몸무게 측정은 항상 기상직후 바로</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>대회</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1월</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>식단(끼)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -331,31 +564,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2끼</t>
+    <t xml:space="preserve">11월29일 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>3끼</t>
+    <t>18년Max</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>2끼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 몸무게 측정은 항상 기상직후 바로</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3끼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>대회</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1끼</t>
+    <t>예상</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +584,7 @@
     <numFmt numFmtId="176" formatCode="#,##0.0_);[Red]\(#,##0.0\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +686,32 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -575,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,6 +879,27 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -643,6 +907,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -947,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI41"/>
+  <dimension ref="A1:AK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -978,64 +1245,64 @@
     <col min="27" max="27" width="4.75" style="9" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5.125" style="9" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6" bestFit="1" customWidth="1"/>
     <col min="32" max="33" width="4.5" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="4.5" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="20" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1053,16 +1320,16 @@
         <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>14</v>
@@ -1071,7 +1338,7 @@
         <v>13</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>15</v>
@@ -1112,7 +1379,7 @@
       <c r="AB2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="21"/>
+      <c r="AC2" s="28"/>
       <c r="AD2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1126,18 +1393,24 @@
         <v>27</v>
       </c>
       <c r="AH2" s="18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" s="26">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43466</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>60</v>
+      <c r="C3" s="7">
+        <v>2</v>
       </c>
       <c r="D3" s="7">
         <v>15</v>
@@ -1150,7 +1423,7 @@
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H32" si="0">SUM(C3:G3)</f>
+        <f>SUM(D3:G3)</f>
         <v>45</v>
       </c>
       <c r="I3" s="7"/>
@@ -1161,7 +1434,7 @@
         <v>120</v>
       </c>
       <c r="N3" s="7">
-        <f t="shared" ref="N3:N32" si="1">SUM(I3:M3)</f>
+        <f t="shared" ref="N3:N33" si="0">SUM(I3:M3)</f>
         <v>120</v>
       </c>
       <c r="O3" s="7"/>
@@ -1172,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="7">
-        <f t="shared" ref="S3:S32" si="2">H3+N3+R3</f>
+        <f t="shared" ref="S3:S32" si="1">H3+N3+R3</f>
         <v>165</v>
       </c>
       <c r="T3" s="7">
@@ -1185,36 +1458,36 @@
       </c>
       <c r="X3" s="7"/>
       <c r="Y3" s="7">
-        <f t="shared" ref="Y3:Y33" si="3">SUM(T3:X3)</f>
+        <f t="shared" ref="Y3:Y33" si="2">SUM(T3:X3)</f>
         <v>150</v>
       </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7">
-        <f t="shared" ref="AB3:AB32" si="4">SUM(Z3:AA3)</f>
+        <f t="shared" ref="AB3:AB32" si="3">SUM(Z3:AA3)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="7">
-        <f t="shared" ref="AC3:AC32" si="5">S3+Y3+AB3</f>
+        <f t="shared" ref="AC3:AC32" si="4">S3+Y3+AB3</f>
         <v>315</v>
       </c>
       <c r="AD3" s="7">
-        <f t="shared" ref="AD3:AD25" si="6">AC3/60 + SUM(AE3:AG3)/60</f>
+        <f t="shared" ref="AD3:AD25" si="5">AC3/60 + SUM(AE3:AG3)/60</f>
         <v>5.75</v>
       </c>
       <c r="AE3" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43467</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>61</v>
+      <c r="C4" s="22">
+        <v>3</v>
       </c>
       <c r="D4" s="7">
         <v>15</v>
@@ -1229,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(D4:G4)</f>
         <v>50</v>
       </c>
       <c r="I4" s="7"/>
@@ -1243,7 +1516,7 @@
         <v>90</v>
       </c>
       <c r="N4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="O4" s="7">
@@ -1252,11 +1525,11 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7">
-        <f t="shared" ref="R4:R32" si="7">SUM(O4:Q4)</f>
+        <f t="shared" ref="R4:R32" si="6">SUM(O4:Q4)</f>
         <v>76</v>
       </c>
       <c r="S4" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>381</v>
       </c>
       <c r="T4" s="7"/>
@@ -1267,47 +1540,47 @@
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC4" s="7">
+        <f t="shared" si="4"/>
+        <v>391</v>
+      </c>
+      <c r="AD4" s="7">
         <f t="shared" si="5"/>
-        <v>391</v>
-      </c>
-      <c r="AD4" s="7">
-        <f t="shared" si="6"/>
         <v>6.5166666666666666</v>
       </c>
       <c r="AE4" s="7"/>
-      <c r="AH4" s="7">
+      <c r="AH4" s="23">
         <v>58.6</v>
       </c>
       <c r="AI4" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43468</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>62</v>
+      <c r="C5" s="7">
+        <v>2</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:G5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
@@ -1321,7 +1594,7 @@
       </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>191</v>
       </c>
       <c r="O5" s="7">
@@ -1330,11 +1603,11 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>99</v>
       </c>
       <c r="S5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>290</v>
       </c>
       <c r="T5" s="7"/>
@@ -1345,36 +1618,36 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC5" s="7">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="AD5" s="7">
         <f t="shared" si="5"/>
-        <v>300</v>
-      </c>
-      <c r="AD5" s="7">
-        <f t="shared" si="6"/>
         <v>5.333333333333333</v>
       </c>
       <c r="AE5" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43469</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>64</v>
+      <c r="C6" s="22">
+        <v>3</v>
       </c>
       <c r="D6" s="7">
         <v>15</v>
@@ -1387,7 +1660,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H6:H33" si="7">SUM(D6:G6)</f>
         <v>45</v>
       </c>
       <c r="I6" s="7">
@@ -1399,18 +1672,18 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>194</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>239</v>
       </c>
       <c r="T6" s="7">
@@ -1423,7 +1696,7 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="Z6" s="7">
@@ -1431,15 +1704,15 @@
       </c>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="AC6" s="7">
+        <f t="shared" si="4"/>
+        <v>514</v>
+      </c>
+      <c r="AD6" s="7">
         <f t="shared" si="5"/>
-        <v>514</v>
-      </c>
-      <c r="AD6" s="7">
-        <f t="shared" si="6"/>
         <v>8.5666666666666664</v>
       </c>
       <c r="AE6" s="7"/>
@@ -1447,15 +1720,15 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43470</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>58</v>
+      <c r="C7" s="22">
+        <v>3</v>
       </c>
       <c r="D7" s="7">
         <v>15</v>
@@ -1468,7 +1741,7 @@
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="I7" s="7">
@@ -1486,18 +1759,18 @@
         <v>20</v>
       </c>
       <c r="N7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>464</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>509</v>
       </c>
       <c r="T7" s="7"/>
@@ -1508,125 +1781,144 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC7" s="7">
+        <f t="shared" si="4"/>
+        <v>519</v>
+      </c>
+      <c r="AD7" s="7">
         <f t="shared" si="5"/>
-        <v>519</v>
-      </c>
-      <c r="AD7" s="7">
-        <f t="shared" si="6"/>
         <v>8.65</v>
       </c>
       <c r="AE7" s="7"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43471</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="22">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7">
+        <v>30</v>
+      </c>
+      <c r="E8" s="7">
+        <v>15</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>90</v>
+        <f>90+77</f>
+        <v>167</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7">
+        <f>10+5</f>
+        <v>15</v>
+      </c>
       <c r="N8" s="7">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>182</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8" s="7">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>227</v>
       </c>
       <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
+      <c r="U8" s="7">
+        <v>10</v>
+      </c>
       <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="W8" s="7">
+        <v>20</v>
+      </c>
       <c r="X8" s="7"/>
       <c r="Y8" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC8" s="7">
+        <f t="shared" si="4"/>
+        <v>257</v>
+      </c>
+      <c r="AD8" s="7">
         <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="AD8" s="7">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>4.2833333333333332</v>
       </c>
       <c r="AE8" s="7"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AH8" s="8">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43472</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>60</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>60</v>
       </c>
       <c r="T9" s="7"/>
       <c r="U9" s="7"/>
@@ -1634,148 +1926,177 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="7"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>240</v>
+      </c>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>240</v>
       </c>
       <c r="AC9" s="7">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="AD9" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE9" s="7"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43473</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="7"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>80</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="7"/>
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O10" s="7">
+        <v>60</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="S10" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>140</v>
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
+      <c r="W10" s="7">
+        <v>30</v>
+      </c>
       <c r="X10" s="7"/>
       <c r="Y10" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="7"/>
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>30</v>
+      </c>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>30</v>
       </c>
       <c r="AC10" s="7">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="AD10" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43474</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="22">
+        <v>3</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="7">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7">
+        <v>5</v>
+      </c>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>20</v>
       </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7">
+        <v>240</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="7"/>
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="O11" s="7">
+        <v>60</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>60</v>
       </c>
       <c r="S11" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>320</v>
       </c>
       <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
+      <c r="U11" s="7">
+        <v>5</v>
+      </c>
       <c r="V11" s="7"/>
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC11" s="7">
+        <f t="shared" si="4"/>
+        <v>325</v>
+      </c>
+      <c r="AD11" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AE11" s="7"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="AH11" s="8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43475</v>
       </c>
@@ -1788,7 +2109,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I12" s="7"/>
@@ -1797,18 +2118,18 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T12" s="7"/>
@@ -1817,26 +2138,26 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC12" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AE12" s="7"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43476</v>
       </c>
@@ -1849,7 +2170,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I13" s="7"/>
@@ -1858,18 +2179,18 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T13" s="7"/>
@@ -1878,26 +2199,26 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC13" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AE13" s="7"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43477</v>
       </c>
@@ -1910,7 +2231,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I14" s="7"/>
@@ -1919,18 +2240,18 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T14" s="7"/>
@@ -1939,26 +2260,26 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC14" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AE14" s="7"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>43478</v>
       </c>
@@ -1971,7 +2292,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I15" s="7"/>
@@ -1980,18 +2301,18 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T15" s="7"/>
@@ -2000,26 +2321,26 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC15" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
       <c r="AE15" s="7"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43479</v>
       </c>
@@ -2032,7 +2353,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I16" s="7"/>
@@ -2041,7 +2362,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O16" s="7"/>
@@ -2052,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T16" s="7"/>
@@ -2061,21 +2382,21 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC16" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE16" s="7"/>
@@ -2093,7 +2414,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I17" s="7"/>
@@ -2102,18 +2423,18 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T17" s="7"/>
@@ -2122,21 +2443,21 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE17" s="7"/>
@@ -2154,7 +2475,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I18" s="7"/>
@@ -2163,18 +2484,18 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T18" s="7"/>
@@ -2183,21 +2504,21 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE18" s="7"/>
@@ -2215,7 +2536,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
@@ -2224,18 +2545,18 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T19" s="7"/>
@@ -2244,21 +2565,21 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE19" s="7"/>
@@ -2276,7 +2597,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
@@ -2285,18 +2606,18 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T20" s="7"/>
@@ -2305,21 +2626,21 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC20" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE20" s="7"/>
@@ -2337,7 +2658,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
@@ -2346,18 +2667,18 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T21" s="7"/>
@@ -2366,21 +2687,21 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC21" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE21" s="7"/>
@@ -2398,7 +2719,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I22" s="7"/>
@@ -2407,18 +2728,18 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T22" s="7"/>
@@ -2427,21 +2748,21 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC22" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE22" s="7"/>
@@ -2459,7 +2780,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I23" s="7"/>
@@ -2468,18 +2789,18 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23" s="7"/>
@@ -2488,21 +2809,21 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC23" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE23" s="7"/>
@@ -2520,7 +2841,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I24" s="7"/>
@@ -2529,18 +2850,18 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24" s="7"/>
@@ -2549,21 +2870,21 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC24" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE24" s="7"/>
@@ -2581,7 +2902,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I25" s="7"/>
@@ -2590,18 +2911,18 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25" s="7"/>
@@ -2610,21 +2931,21 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC25" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE25" s="7"/>
@@ -2642,7 +2963,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I26" s="7"/>
@@ -2651,18 +2972,18 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26" s="7"/>
@@ -2671,17 +2992,17 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC26" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD26" s="7">
@@ -2703,7 +3024,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I27" s="7"/>
@@ -2712,18 +3033,18 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T27" s="7"/>
@@ -2732,17 +3053,17 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC27" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD27" s="7">
@@ -2764,7 +3085,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I28" s="7"/>
@@ -2773,18 +3094,18 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28" s="7"/>
@@ -2793,17 +3114,17 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD28" s="7">
@@ -2825,7 +3146,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I29" s="7"/>
@@ -2834,18 +3155,18 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29" s="7"/>
@@ -2854,17 +3175,17 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC29" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD29" s="7">
@@ -2886,7 +3207,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I30" s="7"/>
@@ -2895,18 +3216,18 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30" s="7"/>
@@ -2915,17 +3236,17 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC30" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD30" s="7">
@@ -2947,7 +3268,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I31" s="7"/>
@@ -2956,18 +3277,18 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T31" s="7"/>
@@ -2976,17 +3297,17 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC31" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD31" s="7">
@@ -3008,7 +3329,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I32" s="7"/>
@@ -3017,18 +3338,18 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T32" s="7"/>
@@ -3037,17 +3358,17 @@
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC32" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD32" s="7">
@@ -3056,7 +3377,7 @@
       </c>
       <c r="AE32" s="7"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>43496</v>
       </c>
@@ -3068,72 +3389,93 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="H33" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
+      <c r="N33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
+      <c r="R33" s="7">
+        <f>SUM(O33:Q33)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <f>H33+N33+R33</f>
+        <v>0</v>
+      </c>
       <c r="T33" s="7"/>
       <c r="U33" s="7"/>
       <c r="V33" s="7"/>
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z33" s="7"/>
       <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
+      <c r="AB33" s="7">
+        <f>SUM(Z33:AA33)</f>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="7">
+        <f>S33+Y33+AB33</f>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="7">
+        <f>AC33/60 + SUM(AE33:AG33)/60</f>
+        <v>0</v>
+      </c>
       <c r="AE33" s="7"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>35</v>
       </c>
       <c r="H34" s="9">
         <f>SUM(H3:H33)</f>
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="N34" s="9">
         <f>SUM(N3:N33)</f>
-        <v>1314</v>
+        <v>1786</v>
       </c>
       <c r="R34" s="9">
         <f>SUM(R3:R33)</f>
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="S34" s="9">
         <f>H34+N34+R34</f>
-        <v>1674</v>
+        <v>2331</v>
       </c>
       <c r="Y34" s="9">
         <f>SUM(Y3:Y33)</f>
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="AB34" s="9">
         <f>SUM(AB3:AB33)</f>
-        <v>255</v>
+        <v>525</v>
       </c>
       <c r="AC34" s="9">
         <f>S34+Y34+AB34</f>
-        <v>2129</v>
+        <v>3121</v>
       </c>
       <c r="AD34" s="2">
         <f>SUM(AD3:AD33)/31</f>
-        <v>1.1715053763440859</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+        <v>1.7155913978494624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>36</v>
       </c>
@@ -3142,79 +3484,79 @@
       </c>
       <c r="H35" s="8">
         <f>H34/60</f>
-        <v>3.0833333333333335</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="N35" s="8">
         <f>N34/60</f>
-        <v>21.9</v>
+        <v>29.766666666666666</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="8">
         <f>R34/60</f>
-        <v>2.9166666666666665</v>
+        <v>4.916666666666667</v>
       </c>
       <c r="S35" s="8">
         <f>S34/60</f>
-        <v>27.9</v>
+        <v>38.85</v>
       </c>
       <c r="X35" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Y35" s="8">
         <f>Y34/60</f>
-        <v>3.3333333333333335</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="AA35" s="10" t="s">
         <v>40</v>
       </c>
       <c r="AB35" s="8">
         <f>AB34/60</f>
-        <v>4.25</v>
+        <v>8.75</v>
       </c>
       <c r="AC35" s="9">
         <f>AC34/60</f>
-        <v>35.483333333333334</v>
+        <v>52.016666666666666</v>
       </c>
       <c r="AD35" s="8">
         <f>SUM(AD3:AD33)</f>
-        <v>36.316666666666663</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+        <v>53.18333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>41</v>
       </c>
       <c r="H36" s="9">
         <f>H35</f>
-        <v>3.0833333333333335</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="N36" s="9">
         <f>N35</f>
-        <v>21.9</v>
+        <v>29.766666666666666</v>
       </c>
       <c r="R36" s="9">
         <f>R35/31</f>
-        <v>9.4086021505376344E-2</v>
+        <v>0.15860215053763441</v>
       </c>
       <c r="S36" s="9">
         <f>S35</f>
-        <v>27.9</v>
+        <v>38.85</v>
       </c>
       <c r="AB36" s="9">
         <f>AB35</f>
-        <v>4.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD36" s="2">
         <f>AD34</f>
-        <v>1.1715053763440859</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+        <v>1.7155913978494624</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>42</v>
       </c>
@@ -3243,44 +3585,68 @@
         <v>143.56666666666666</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>43</v>
       </c>
       <c r="H38" s="9">
         <f>H36-H37</f>
-        <v>-5.5</v>
+        <v>-4.416666666666667</v>
       </c>
       <c r="N38" s="9">
         <f>N36-N37</f>
-        <v>-36.35</v>
+        <v>-28.483333333333334</v>
       </c>
       <c r="R38" s="9">
         <f>R36-R37</f>
-        <v>6.7204301075268813E-2</v>
+        <v>0.13172043010752688</v>
       </c>
       <c r="S38" s="9">
         <f>S36-S37</f>
-        <v>-38.93333333333333</v>
+        <v>-27.983333333333327</v>
       </c>
       <c r="AB38" s="9">
         <f>AB36-AB37</f>
-        <v>-35.333333333333336</v>
+        <v>-30.833333333333336</v>
       </c>
       <c r="AD38" s="9">
         <f>AD36-AD37</f>
-        <v>-142.39516129032259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+        <v>-141.8510752688172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="9">
+        <v>12</v>
+      </c>
+      <c r="N39" s="9">
+        <v>90</v>
+      </c>
+      <c r="R39" s="9">
+        <v>15</v>
+      </c>
+      <c r="Y39" s="9">
+        <v>12</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>35</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>150</v>
+      </c>
+      <c r="AH39" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>46</v>
       </c>
@@ -3292,8 +3658,32 @@
         <f>C40/B40</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="G40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H40" s="9">
+        <v>13.13</v>
+      </c>
+      <c r="N40" s="9">
+        <v>78.7</v>
+      </c>
+      <c r="R40" s="9">
+        <v>4.28</v>
+      </c>
+      <c r="Y40" s="9">
+        <v>30.3</v>
+      </c>
+      <c r="AB40" s="9">
+        <v>104</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>214</v>
+      </c>
+      <c r="AH40" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -3329,7 +3719,7 @@
   <dimension ref="A1:AH41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3363,55 +3753,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="25" t="s">
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
       <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="20" t="s">
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="27" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
@@ -3431,16 +3821,16 @@
         <v>13</v>
       </c>
       <c r="I2" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="16" t="s">
         <v>55</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="M2" s="16" t="s">
         <v>14</v>
@@ -3449,7 +3839,7 @@
         <v>13</v>
       </c>
       <c r="O2" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P2" s="16" t="s">
         <v>15</v>
@@ -3490,7 +3880,7 @@
       <c r="AB2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="21"/>
+      <c r="AC2" s="28"/>
       <c r="AD2" s="5" t="s">
         <v>25</v>
       </c>
@@ -3503,42 +3893,34 @@
       <c r="AG2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="16"/>
+      <c r="AH2" s="16" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="7">
-        <v>15</v>
-      </c>
-      <c r="E3" s="7">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7">
-        <v>15</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H32" si="0">SUM(C3:G3)</f>
-        <v>45</v>
+        <f>SUM(D3:G3)</f>
+        <v>0</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7">
-        <v>120</v>
-      </c>
+      <c r="M3" s="7"/>
       <c r="N3" s="7">
-        <f t="shared" ref="N3:N32" si="1">SUM(I3:M3)</f>
-        <v>120</v>
+        <f t="shared" ref="N3:N32" si="0">SUM(I3:M3)</f>
+        <v>0</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -3548,126 +3930,101 @@
         <v>0</v>
       </c>
       <c r="S3" s="7">
-        <f t="shared" ref="S3:S32" si="2">H3+N3+R3</f>
-        <v>165</v>
-      </c>
-      <c r="T3" s="7">
-        <v>120</v>
-      </c>
+        <f t="shared" ref="S3:S32" si="1">H3+N3+R3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
-      <c r="W3" s="7">
-        <v>30</v>
-      </c>
+      <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7">
-        <f t="shared" ref="Y3:Y33" si="3">SUM(T3:X3)</f>
-        <v>150</v>
+        <f t="shared" ref="Y3:Y33" si="2">SUM(T3:X3)</f>
+        <v>0</v>
       </c>
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7">
-        <f t="shared" ref="AB3:AB32" si="4">SUM(Z3:AA3)</f>
+        <f t="shared" ref="AB3:AB32" si="3">SUM(Z3:AA3)</f>
         <v>0</v>
       </c>
       <c r="AC3" s="7">
-        <f t="shared" ref="AC3:AC32" si="5">S3+Y3+AB3</f>
-        <v>315</v>
+        <f t="shared" ref="AC3:AC32" si="4">S3+Y3+AB3</f>
+        <v>0</v>
       </c>
       <c r="AD3" s="7">
-        <f t="shared" ref="AD3:AD25" si="6">AC3/60 + SUM(AE3:AG3)/60</f>
-        <v>5.75</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>30</v>
-      </c>
+        <f t="shared" ref="AD3:AD25" si="5">AC3/60 + SUM(AE3:AG3)/60</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="7"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
-        <v>43467</v>
+        <v>43498</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="7">
-        <v>15</v>
-      </c>
-      <c r="E4" s="7">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7">
-        <v>15</v>
-      </c>
-      <c r="G4" s="7">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="7">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>SUM(D4:G4)</f>
+        <v>0</v>
       </c>
       <c r="I4" s="7"/>
-      <c r="J4" s="7">
-        <f>30+135</f>
-        <v>165</v>
-      </c>
+      <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7">
-        <v>90</v>
-      </c>
+      <c r="M4" s="7"/>
       <c r="N4" s="7">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="O4" s="7">
-        <v>76</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7">
-        <f t="shared" ref="R4:R32" si="7">SUM(O4:Q4)</f>
-        <v>76</v>
+        <f t="shared" ref="R4:R32" si="6">SUM(O4:Q4)</f>
+        <v>0</v>
       </c>
       <c r="S4" s="7">
-        <f t="shared" si="2"/>
-        <v>381</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="T4" s="7"/>
-      <c r="U4" s="7">
-        <v>10</v>
-      </c>
+      <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
       <c r="X4" s="7"/>
       <c r="Y4" s="7">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="Z4" s="7"/>
       <c r="AA4" s="7"/>
       <c r="AB4" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC4" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
         <f t="shared" si="5"/>
-        <v>391</v>
-      </c>
-      <c r="AD4" s="7">
-        <f t="shared" si="6"/>
-        <v>6.5166666666666666</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="7"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
-        <v>43468</v>
+        <v>43499</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3675,7 +4032,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:G5)</f>
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
@@ -3684,18 +4041,18 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T5" s="7"/>
@@ -3704,31 +4061,31 @@
       <c r="W5" s="7"/>
       <c r="X5" s="7"/>
       <c r="Y5" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z5" s="7"/>
       <c r="AA5" s="7"/>
       <c r="AB5" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC5" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD5" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
-        <v>43469</v>
+        <v>43500</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3736,7 +4093,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H6:H31" si="7">SUM(D6:G6)</f>
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
@@ -3745,18 +4102,18 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S6" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T6" s="7"/>
@@ -3765,31 +4122,31 @@
       <c r="W6" s="7"/>
       <c r="X6" s="7"/>
       <c r="Y6" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z6" s="7"/>
       <c r="AA6" s="7"/>
       <c r="AB6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC6" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>43470</v>
+        <v>43501</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3797,7 +4154,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
@@ -3806,18 +4163,18 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
       <c r="N7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T7" s="7"/>
@@ -3826,31 +4183,31 @@
       <c r="W7" s="7"/>
       <c r="X7" s="7"/>
       <c r="Y7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
       <c r="AB7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC7" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE7" s="7"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>43471</v>
+        <v>43502</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3858,7 +4215,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
@@ -3867,18 +4224,18 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T8" s="7"/>
@@ -3887,31 +4244,31 @@
       <c r="W8" s="7"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
       <c r="AB8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC8" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE8" s="7"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
-        <v>43472</v>
+        <v>43503</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3919,7 +4276,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I9" s="7"/>
@@ -3928,18 +4285,18 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T9" s="7"/>
@@ -3948,31 +4305,31 @@
       <c r="W9" s="7"/>
       <c r="X9" s="7"/>
       <c r="Y9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
       <c r="AB9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC9" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE9" s="7"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
-        <v>43473</v>
+        <v>43504</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3980,7 +4337,7 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I10" s="7"/>
@@ -3989,18 +4346,18 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T10" s="7"/>
@@ -4009,31 +4366,31 @@
       <c r="W10" s="7"/>
       <c r="X10" s="7"/>
       <c r="Y10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z10" s="7"/>
       <c r="AA10" s="7"/>
       <c r="AB10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC10" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
-        <v>43474</v>
+        <v>43505</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -4041,7 +4398,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I11" s="7"/>
@@ -4050,18 +4407,18 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T11" s="7"/>
@@ -4070,31 +4427,31 @@
       <c r="W11" s="7"/>
       <c r="X11" s="7"/>
       <c r="Y11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z11" s="7"/>
       <c r="AA11" s="7"/>
       <c r="AB11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE11" s="7"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
-        <v>43475</v>
+        <v>43506</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4102,7 +4459,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I12" s="7"/>
@@ -4111,18 +4468,18 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T12" s="7"/>
@@ -4131,31 +4488,31 @@
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
       <c r="Y12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z12" s="7"/>
       <c r="AA12" s="7"/>
       <c r="AB12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC12" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE12" s="7"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
-        <v>43476</v>
+        <v>43507</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4163,7 +4520,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I13" s="7"/>
@@ -4172,18 +4529,18 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
       <c r="N13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T13" s="7"/>
@@ -4192,31 +4549,31 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z13" s="7"/>
       <c r="AA13" s="7"/>
       <c r="AB13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC13" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE13" s="7"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
-        <v>43477</v>
+        <v>43508</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4224,7 +4581,7 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I14" s="7"/>
@@ -4233,18 +4590,18 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T14" s="7"/>
@@ -4253,31 +4610,31 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
       <c r="AB14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC14" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE14" s="7"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
-        <v>43478</v>
+        <v>43509</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4285,7 +4642,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I15" s="7"/>
@@ -4294,18 +4651,18 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T15" s="7"/>
@@ -4314,31 +4671,31 @@
       <c r="W15" s="7"/>
       <c r="X15" s="7"/>
       <c r="Y15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z15" s="7"/>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC15" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE15" s="7"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
-        <v>43479</v>
+        <v>43510</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4346,7 +4703,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I16" s="7"/>
@@ -4355,7 +4712,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O16" s="7"/>
@@ -4366,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T16" s="7"/>
@@ -4375,31 +4732,31 @@
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
       <c r="Y16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z16" s="7"/>
       <c r="AA16" s="7"/>
       <c r="AB16" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC16" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE16" s="7"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>43480</v>
+        <v>43511</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4407,7 +4764,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I17" s="7"/>
@@ -4416,18 +4773,18 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
       <c r="N17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T17" s="7"/>
@@ -4436,31 +4793,31 @@
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
       <c r="Y17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE17" s="7"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
-        <v>43481</v>
+        <v>43512</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4468,7 +4825,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I18" s="7"/>
@@ -4477,18 +4834,18 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T18" s="7"/>
@@ -4497,31 +4854,31 @@
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
       <c r="Y18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z18" s="7"/>
       <c r="AA18" s="7"/>
       <c r="AB18" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE18" s="7"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>43482</v>
+        <v>43513</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4529,7 +4886,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I19" s="7"/>
@@ -4538,18 +4895,18 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
       <c r="N19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T19" s="7"/>
@@ -4558,31 +4915,31 @@
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
       <c r="Y19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z19" s="7"/>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE19" s="7"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>43483</v>
+        <v>43514</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4590,7 +4947,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I20" s="7"/>
@@ -4599,18 +4956,18 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T20" s="7"/>
@@ -4619,31 +4976,31 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC20" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE20" s="7"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>43484</v>
+        <v>43515</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4651,7 +5008,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I21" s="7"/>
@@ -4660,18 +5017,18 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O21" s="7"/>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T21" s="7"/>
@@ -4680,31 +5037,31 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z21" s="7"/>
       <c r="AA21" s="7"/>
       <c r="AB21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC21" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE21" s="7"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>43485</v>
+        <v>43516</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4712,7 +5069,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I22" s="7"/>
@@ -4721,18 +5078,18 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T22" s="7"/>
@@ -4741,31 +5098,31 @@
       <c r="W22" s="7"/>
       <c r="X22" s="7"/>
       <c r="Y22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z22" s="7"/>
       <c r="AA22" s="7"/>
       <c r="AB22" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC22" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE22" s="7"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>43486</v>
+        <v>43517</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4773,7 +5130,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I23" s="7"/>
@@ -4782,18 +5139,18 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O23" s="7"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T23" s="7"/>
@@ -4802,31 +5159,31 @@
       <c r="W23" s="7"/>
       <c r="X23" s="7"/>
       <c r="Y23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z23" s="7"/>
       <c r="AA23" s="7"/>
       <c r="AB23" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC23" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE23" s="7"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>43487</v>
+        <v>43518</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4834,7 +5191,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I24" s="7"/>
@@ -4843,18 +5200,18 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T24" s="7"/>
@@ -4863,31 +5220,31 @@
       <c r="W24" s="7"/>
       <c r="X24" s="7"/>
       <c r="Y24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z24" s="7"/>
       <c r="AA24" s="7"/>
       <c r="AB24" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC24" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE24" s="7"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>43488</v>
+        <v>43519</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -4895,7 +5252,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I25" s="7"/>
@@ -4904,18 +5261,18 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T25" s="7"/>
@@ -4924,31 +5281,31 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
       <c r="AB25" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC25" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="7">
-        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>43489</v>
+        <v>43520</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4956,7 +5313,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I26" s="7"/>
@@ -4965,18 +5322,18 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T26" s="7"/>
@@ -4985,17 +5342,17 @@
       <c r="W26" s="7"/>
       <c r="X26" s="7"/>
       <c r="Y26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
       <c r="AB26" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC26" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD26" s="7">
@@ -5006,10 +5363,10 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>43490</v>
+        <v>43521</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -5017,7 +5374,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I27" s="7"/>
@@ -5026,18 +5383,18 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
       <c r="N27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T27" s="7"/>
@@ -5046,17 +5403,17 @@
       <c r="W27" s="7"/>
       <c r="X27" s="7"/>
       <c r="Y27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z27" s="7"/>
       <c r="AA27" s="7"/>
       <c r="AB27" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC27" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD27" s="7">
@@ -5067,10 +5424,10 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>43491</v>
+        <v>43522</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -5078,7 +5435,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I28" s="7"/>
@@ -5087,18 +5444,18 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T28" s="7"/>
@@ -5107,17 +5464,17 @@
       <c r="W28" s="7"/>
       <c r="X28" s="7"/>
       <c r="Y28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z28" s="7"/>
       <c r="AA28" s="7"/>
       <c r="AB28" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC28" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD28" s="7">
@@ -5128,10 +5485,10 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>43492</v>
+        <v>43523</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -5139,7 +5496,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I29" s="7"/>
@@ -5148,18 +5505,18 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O29" s="7"/>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T29" s="7"/>
@@ -5168,17 +5525,17 @@
       <c r="W29" s="7"/>
       <c r="X29" s="7"/>
       <c r="Y29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z29" s="7"/>
       <c r="AA29" s="7"/>
       <c r="AB29" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC29" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD29" s="7">
@@ -5189,10 +5546,10 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>43493</v>
+        <v>43524</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -5200,7 +5557,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I30" s="7"/>
@@ -5209,18 +5566,18 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T30" s="7"/>
@@ -5229,17 +5586,17 @@
       <c r="W30" s="7"/>
       <c r="X30" s="7"/>
       <c r="Y30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z30" s="7"/>
       <c r="AA30" s="7"/>
       <c r="AB30" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC30" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD30" s="7">
@@ -5249,19 +5606,15 @@
       <c r="AE30" s="7"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>43494</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I31" s="7"/>
@@ -5270,18 +5623,18 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
       <c r="N31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T31" s="7"/>
@@ -5290,17 +5643,17 @@
       <c r="W31" s="7"/>
       <c r="X31" s="7"/>
       <c r="Y31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z31" s="7"/>
       <c r="AA31" s="7"/>
       <c r="AB31" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC31" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD31" s="7">
@@ -5310,19 +5663,15 @@
       <c r="AE31" s="7"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>43495</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(D32:G32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="7"/>
@@ -5331,18 +5680,18 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T32" s="7"/>
@@ -5351,17 +5700,17 @@
       <c r="W32" s="7"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z32" s="7"/>
       <c r="AA32" s="7"/>
       <c r="AB32" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC32" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AD32" s="7">
@@ -5371,12 +5720,8 @@
       <c r="AE32" s="7"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>43496</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>31</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -5400,7 +5745,7 @@
       <c r="W33" s="7"/>
       <c r="X33" s="7"/>
       <c r="Y33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z33" s="7"/>
@@ -5416,23 +5761,23 @@
       </c>
       <c r="H34" s="9">
         <f>SUM(H3:H33)</f>
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N34" s="9">
         <f>SUM(N3:N33)</f>
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="R34" s="9">
         <f>SUM(R3:R33)</f>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="S34" s="9">
         <f>H34+N34+R34</f>
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="9">
         <f>SUM(Y3:Y33)</f>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="9">
         <f>SUM(AB3:AB33)</f>
@@ -5440,11 +5785,11 @@
       </c>
       <c r="AC34" s="9">
         <f>S34+Y34+AB34</f>
-        <v>706</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="2">
         <f>SUM(AD3:AD33)/31</f>
-        <v>0.39569892473118279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -5456,32 +5801,32 @@
       </c>
       <c r="H35" s="8">
         <f>H34/60</f>
-        <v>1.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="N35" s="8">
         <f>N34/60</f>
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="10" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="8">
         <f>R34/60</f>
-        <v>1.2666666666666666</v>
+        <v>0</v>
       </c>
       <c r="S35" s="8">
         <f>S34/60</f>
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Y35" s="8">
         <f>Y34/60</f>
-        <v>2.6666666666666665</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="10" t="s">
         <v>40</v>
@@ -5492,11 +5837,11 @@
       </c>
       <c r="AC35" s="9">
         <f>AC34/60</f>
-        <v>11.766666666666667</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="8">
         <f>SUM(AD3:AD33)</f>
-        <v>12.266666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -5505,19 +5850,19 @@
       </c>
       <c r="H36" s="9">
         <f>H35</f>
-        <v>1.5833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N36" s="9">
         <f>N35</f>
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="R36" s="9">
         <f>R35/31</f>
-        <v>4.0860215053763436E-2</v>
+        <v>0</v>
       </c>
       <c r="S36" s="9">
         <f>S35</f>
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="9">
         <f>AB35</f>
@@ -5525,7 +5870,7 @@
       </c>
       <c r="AD36" s="2">
         <f>AD34</f>
-        <v>0.39569892473118279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -5533,29 +5878,10 @@
         <v>42</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="9">
-        <v>8.5833333333333339</v>
-      </c>
-      <c r="N37" s="9">
-        <v>58.25</v>
-      </c>
-      <c r="R37" s="9">
-        <v>2.6881720430107527E-2</v>
-      </c>
-      <c r="S37" s="9">
-        <v>66.833333333333329</v>
-      </c>
-      <c r="Y37" s="9">
-        <v>30.316666666666666</v>
-      </c>
-      <c r="AB37" s="7">
-        <v>39.583333333333336</v>
-      </c>
-      <c r="AD37">
-        <v>143.56666666666666</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="AB37" s="7"/>
+      <c r="AD37"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
@@ -5563,27 +5889,2291 @@
       </c>
       <c r="H38" s="9">
         <f>H36-H37</f>
-        <v>-7.0000000000000009</v>
+        <v>0</v>
       </c>
       <c r="N38" s="9">
         <f>N36-N37</f>
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="R38" s="9">
         <f>R36-R37</f>
-        <v>1.3978494623655909E-2</v>
+        <v>0</v>
       </c>
       <c r="S38" s="9">
         <f>S36-S37</f>
-        <v>-57.733333333333327</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="9">
         <f>AB36-AB37</f>
-        <v>-39.583333333333336</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="9">
         <f>AD36-AD37</f>
-        <v>-143.17096774193547</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="9">
+        <f>13*31</f>
+        <v>403</v>
+      </c>
+      <c r="D40" s="15">
+        <f>C40/B40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="9">
+        <f>13*22</f>
+        <v>286</v>
+      </c>
+      <c r="D41" s="15">
+        <f>C41/B41</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="AC1:AC2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4" style="9" customWidth="1"/>
+    <col min="3" max="5" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="5.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="4.625" style="9" customWidth="1"/>
+    <col min="24" max="24" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5" style="9" customWidth="1"/>
+    <col min="26" max="26" width="4.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="X2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH2" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>43525</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
+        <f>SUM(D3:G3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N32" si="0">SUM(I3:M3)</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7">
+        <f>SUM(O3:Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <f t="shared" ref="S3:S32" si="1">H3+N3+R3</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7">
+        <f t="shared" ref="Y3:Y33" si="2">SUM(T3:X3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7">
+        <f t="shared" ref="AB3:AB32" si="3">SUM(Z3:AA3)</f>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="7">
+        <f t="shared" ref="AC3:AC32" si="4">S3+Y3+AB3</f>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="7">
+        <f t="shared" ref="AD3:AD25" si="5">AC3/60 + SUM(AE3:AG3)/60</f>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="7"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>43526</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
+        <f>SUM(D4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7">
+        <f t="shared" ref="R4:R32" si="6">SUM(O4:Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="7"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>43527</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H32" si="7">SUM(D5:G5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>43528</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>43529</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>43530</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="7"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>43531</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="7"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>43532</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="7"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>43533</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="7"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>43534</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="7"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>43535</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="7"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>43536</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="7"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
+        <v>43537</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>43538</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7">
+        <f>SUM(O16:Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>43539</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>43540</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>43541</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>43542</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="7"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>43543</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="7"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>43544</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="7"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>43545</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="7"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>43546</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="7"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>43547</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="7"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>43548</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="7">
+        <f t="shared" ref="AD26:AD32" si="8">AC26/60 + SUM(AE26:AG26)/60</f>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="7"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>43549</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE27" s="7"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>43550</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="7"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>43551</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE29" s="7"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>43552</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="7"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>43553</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC31" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD31" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE31" s="7"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>43554</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC32" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD32" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE32" s="7"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>43555</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7">
+        <f>SUM(D33:G33)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="9">
+        <f>SUM(H3:H33)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <f>SUM(N3:N33)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="9">
+        <f>SUM(R3:R33)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="9">
+        <f>H34+N34+R34</f>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="9">
+        <f>SUM(Y3:Y33)</f>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="9">
+        <f>SUM(AB3:AB33)</f>
+        <v>0</v>
+      </c>
+      <c r="AC34" s="9">
+        <f>S34+Y34+AB34</f>
+        <v>0</v>
+      </c>
+      <c r="AD34" s="2">
+        <f>SUM(AD3:AD33)/31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="8">
+        <f>H34/60</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="8">
+        <f>N34/60</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="8">
+        <f>R34/60</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="8">
+        <f>S34/60</f>
+        <v>0</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" s="8">
+        <f>Y34/60</f>
+        <v>0</v>
+      </c>
+      <c r="AA35" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB35" s="8">
+        <f>AB34/60</f>
+        <v>0</v>
+      </c>
+      <c r="AC35" s="9">
+        <f>AC34/60</f>
+        <v>0</v>
+      </c>
+      <c r="AD35" s="8">
+        <f>SUM(AD3:AD33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="9">
+        <f>H35</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="9">
+        <f>N35</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <f>R35/31</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="9">
+        <f>S35</f>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="9">
+        <f>AB35</f>
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2">
+        <f>AD34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB37" s="7"/>
+      <c r="AD37"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" s="9">
+        <f>H36-H37</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="9">
+        <f>N36-N37</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <f>R36-R37</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <f>S36-S37</f>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="9">
+        <f>AB36-AB37</f>
+        <v>0</v>
+      </c>
+      <c r="AD38" s="9">
+        <f>AD36-AD37</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
